--- a/news_data.xlsx
+++ b/news_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b768e554f744f36/바탕 화면/bbcProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_5291349D9D4A7E0E62355476585DCE3A8747A530" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B89D46-0322-4BC0-9430-175418FC7725}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_5291349D9D4A7E0E62355476585DCE3A8747A530" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB09A54E-0AA5-4662-83BF-9911255916C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>https://www.bbc.co.uk/news/uk-politics-67325120?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
-    <t>DJ는 필리핀에서 라이브 방송 중에 죽음을 맞았습니다</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/news/world-asia-67325671?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>https://www.bbc.co.uk/news/world-europe-67227686?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
-    <t>소매 업체의 붕괴 후 Wilko 노동자</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/news/business-67288993?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
@@ -154,15 +148,9 @@
     <t>https://www.bbc.co.uk/news/uk-67294811?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
-    <t>resc-beewed : 해안선에서 구한 영국의 외로운 양</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/news/uk-scotland-highlands-islands-67321305?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
-    <t>Matthew Perry는 개인 행사에 묻힌 미국 언론 보도</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/news/world-us-canada-67319475?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
@@ -223,9 +211,6 @@
     <t>https://www.bbc.co.uk/news/world-middle-east-67317454?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
-    <t>Bowen : 4 주간의 이스라엘-가자 전쟁 후 5 개의 새로운 현실</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/news/world-middle-east-67306902?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
@@ -250,9 +235,6 @@
     <t>https://www.bbc.co.uk/news/world-us-canada-67317218?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
-    <t>이스라엘은 하마스가 터널에서 히트 앤 런 공격을했다</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/news/world-middle-east-67302206?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
@@ -268,9 +250,6 @@
     <t>https://www.bbc.co.uk/news/world-middle-east-67314396?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
-    <t>레바논의 헤즈볼라는 무엇이며 이스라엘과 전쟁을 할 것인가?</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/news/world-middle-east-67307858?at_medium=RSS&amp;at_campaign=KARANGA</t>
   </si>
   <si>
@@ -278,9 +257,6 @@
   </si>
   <si>
     <t>https://www.bbc.co.uk/news/world-middle-east-67316559?at_medium=RSS&amp;at_campaign=KARANGA</t>
-  </si>
-  <si>
-    <t>그들이 어머니에게 전화했을 때, Hamas는 전화에 응답했습니다.</t>
   </si>
   <si>
     <t>https://www.bbc.co.uk/news/world-middle-east-67304340?at_medium=RSS&amp;at_campaign=KARANGA</t>
@@ -299,6 +275,38 @@
   </si>
   <si>
     <t>https://www.bbc.co.uk/news/uk-67324354?at_medium=RSS&amp;at_campaign=KARANGA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ는 필리핀에서 라이브 방송 중에 죽음을 맞았습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소매 업체의 붕괴 후 Wilko 노동자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resc-beewed : 해안선에서 구한 영국의 외로운 양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matthew Perry는 개인 행사에 묻힌 미국 언론 보도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowen : 4 주간의 이스라엘-가자 전쟁 후 5 개의 새로운 현실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스라엘은 하마스가 터널에서 히트 앤 런 공격을했다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레바논의 헤즈볼라는 무엇이며 이스라엘과 전쟁을 할 것인가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그들이 어머니에게 전화했을 때, Hamas는 전화에 응답했습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -395,6 +403,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -810,10 +822,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -824,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -838,10 +850,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -852,10 +864,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -863,13 +875,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -880,10 +892,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -894,10 +906,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -908,10 +920,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -922,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -933,13 +945,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -947,13 +959,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -961,13 +973,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -975,13 +987,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -989,13 +1001,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1003,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1017,13 +1029,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1034,10 +1046,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1045,13 +1057,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1059,13 +1071,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1073,13 +1085,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1087,13 +1099,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1101,13 +1113,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1115,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1132,10 +1144,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1143,13 +1155,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1157,13 +1169,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1171,13 +1183,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1185,13 +1197,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1199,13 +1211,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1213,13 +1225,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1227,13 +1239,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1241,13 +1253,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1255,13 +1267,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1269,13 +1281,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1283,13 +1295,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
